--- a/ReDBox Data Mapping.xlsx
+++ b/ReDBox Data Mapping.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="612">
   <si>
     <t>dc:creator.foaf:Person.0.dc:identifier</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -962,10 +962,6 @@
   </si>
   <si>
     <t>Field Type</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc:coverage.vivo:GeographicLocation.0.dc:type</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1788,10 +1784,6 @@
     <t>rif:description.0.value</t>
   </si>
   <si>
-    <t>dc:relation.swrc:Publication.0.skos:note</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>dc:relation.bibo:Website.0.dc:title</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2333,6 +2325,18 @@
   </si>
   <si>
     <t>dc:biblioGraphicCitation.redbox:sendCitation</t>
+  </si>
+  <si>
+    <t>dc:coverage.vivo:GeographicLocation.0.dc:type</t>
+  </si>
+  <si>
+    <t>dc:relation.swrc:Publication.0.dc:title</t>
+  </si>
+  <si>
+    <t>dc:relation.swrc:Publication.0.dc:identifier</t>
+  </si>
+  <si>
+    <t>dc:relation.swrc:Publication.0.skos:note</t>
   </si>
 </sst>
 </file>
@@ -3108,297 +3112,297 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3419,8 +3423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3444,52 +3448,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>244</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>109</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -3500,31 +3504,31 @@
         <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D2" t="s">
         <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J2" t="s">
         <v>104</v>
       </c>
       <c r="K2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -3535,31 +3539,31 @@
         <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J3" t="s">
         <v>104</v>
       </c>
       <c r="K3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -3570,31 +3574,31 @@
         <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D4" t="s">
         <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>108</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -3605,31 +3609,31 @@
         <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D5" t="s">
         <v>178</v>
       </c>
       <c r="E5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J5" t="s">
         <v>104</v>
       </c>
       <c r="K5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3640,31 +3644,31 @@
         <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J6" t="s">
         <v>104</v>
       </c>
       <c r="K6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -3675,31 +3679,31 @@
         <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D7" t="s">
         <v>230</v>
       </c>
       <c r="E7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J7" t="s">
         <v>104</v>
       </c>
       <c r="K7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -3707,31 +3711,31 @@
         <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E8" t="s">
         <v>207</v>
       </c>
       <c r="F8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J8" t="s">
         <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -3742,31 +3746,31 @@
         <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E9" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J9" t="s">
         <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -3777,31 +3781,31 @@
         <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D10" t="s">
         <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J10" t="s">
         <v>104</v>
       </c>
       <c r="K10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -3812,31 +3816,31 @@
         <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J11" t="s">
         <v>104</v>
       </c>
       <c r="K11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -3844,34 +3848,34 @@
         <v>182</v>
       </c>
       <c r="B12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C12" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D12" t="s">
         <v>178</v>
       </c>
       <c r="E12" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J12" t="s">
         <v>104</v>
       </c>
       <c r="K12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -3879,34 +3883,34 @@
         <v>182</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C13" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E13" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F13" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J13" t="s">
         <v>104</v>
       </c>
       <c r="K13" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M13" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N13" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -3914,34 +3918,34 @@
         <v>182</v>
       </c>
       <c r="B14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C14" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E14" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F14" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J14" t="s">
         <v>104</v>
       </c>
       <c r="K14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L14" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N14" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -3952,31 +3956,31 @@
         <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E15" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F15" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J15" t="s">
         <v>104</v>
       </c>
       <c r="K15" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L15" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M15" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N15" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -3987,31 +3991,31 @@
         <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D16" t="s">
         <v>178</v>
       </c>
       <c r="E16" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F16" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J16" t="s">
         <v>104</v>
       </c>
       <c r="K16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L16" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M16" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N16" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -4022,31 +4026,31 @@
         <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E17" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J17" t="s">
         <v>104</v>
       </c>
       <c r="K17" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L17" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M17" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -4057,7 +4061,7 @@
         <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D18" t="s">
         <v>133</v>
@@ -4066,22 +4070,22 @@
         <v>137</v>
       </c>
       <c r="F18" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J18" t="s">
         <v>104</v>
       </c>
       <c r="K18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L18" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -4092,37 +4096,37 @@
         <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D19" t="s">
         <v>184</v>
       </c>
       <c r="E19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>57</v>
       </c>
       <c r="H19" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J19" t="s">
         <v>104</v>
       </c>
       <c r="K19" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L19" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M19" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N19" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -4133,31 +4137,31 @@
         <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E20" t="s">
         <v>138</v>
       </c>
       <c r="F20" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J20" t="s">
         <v>104</v>
       </c>
       <c r="K20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M20" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="N20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -4165,37 +4169,37 @@
         <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G21" t="s">
         <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J21" t="s">
         <v>106</v>
       </c>
       <c r="K21" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="N21" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -4206,7 +4210,7 @@
         <v>132</v>
       </c>
       <c r="C22" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D22" t="s">
         <v>180</v>
@@ -4215,60 +4219,60 @@
         <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J22" t="s">
         <v>104</v>
       </c>
       <c r="K22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N22" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B23" t="s">
         <v>239</v>
       </c>
       <c r="C23" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E23" t="s">
         <v>243</v>
       </c>
       <c r="F23" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G23" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H23" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J23" t="s">
         <v>104</v>
       </c>
       <c r="K23" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L23" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M23" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N23" t="s">
         <v>68</v>
@@ -4276,43 +4280,43 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B24" t="s">
         <v>238</v>
       </c>
       <c r="C24" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D24" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E24" t="s">
         <v>242</v>
       </c>
       <c r="F24" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G24" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J24" t="s">
         <v>104</v>
       </c>
       <c r="K24" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L24" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M24" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N24" t="s">
         <v>65</v>
@@ -4320,43 +4324,43 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>337</v>
+      </c>
+      <c r="B25" t="s">
         <v>338</v>
       </c>
-      <c r="B25" t="s">
-        <v>339</v>
-      </c>
       <c r="C25" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D25" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E25" t="s">
         <v>241</v>
       </c>
       <c r="F25" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G25" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H25" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J25" t="s">
         <v>104</v>
       </c>
       <c r="K25" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L25" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="M25" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N25" t="s">
         <v>104</v>
@@ -4364,92 +4368,92 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E26" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F26" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J26" t="s">
         <v>106</v>
       </c>
       <c r="K26" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M26" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N26" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B27" t="s">
+        <v>356</v>
+      </c>
+      <c r="D27" t="s">
+        <v>364</v>
+      </c>
+      <c r="E27" t="s">
         <v>357</v>
       </c>
-      <c r="D27" t="s">
-        <v>365</v>
-      </c>
-      <c r="E27" t="s">
-        <v>358</v>
-      </c>
       <c r="F27" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J27" t="s">
         <v>106</v>
       </c>
       <c r="K27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L27" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N27" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B28" t="s">
         <v>240</v>
       </c>
       <c r="C28" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E28" t="s">
-        <v>245</v>
+        <v>608</v>
       </c>
       <c r="F28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G28" t="s">
         <v>101</v>
       </c>
       <c r="H28" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I28" t="s">
         <v>101</v>
@@ -4458,13 +4462,13 @@
         <v>104</v>
       </c>
       <c r="K28" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L28" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M28" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N28" t="s">
         <v>65</v>
@@ -4472,19 +4476,19 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F29" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G29" t="s">
         <v>58</v>
@@ -4496,33 +4500,33 @@
         <v>106</v>
       </c>
       <c r="K29" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L29" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M29" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="N29" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F30" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G30" t="s">
         <v>102</v>
@@ -4534,57 +4538,57 @@
         <v>106</v>
       </c>
       <c r="K30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L30" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N30" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C31" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F31" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G31" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H31" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J31" t="s">
         <v>104</v>
       </c>
       <c r="K31" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L31" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M31" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N31" t="s">
         <v>104</v>
@@ -4592,40 +4596,40 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F32" t="s">
-        <v>594</v>
+        <v>522</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H32" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J32" t="s">
         <v>106</v>
       </c>
       <c r="K32" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L32" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M32" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N32" t="s">
         <v>104</v>
@@ -4633,43 +4637,43 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C33" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E33" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F33" t="s">
-        <v>594</v>
+        <v>522</v>
       </c>
       <c r="G33" t="s">
         <v>54</v>
       </c>
       <c r="H33" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J33" t="s">
         <v>104</v>
       </c>
       <c r="K33" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L33" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M33" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N33" t="s">
         <v>104</v>
@@ -4677,43 +4681,43 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C34" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E34" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F34" t="s">
-        <v>594</v>
+        <v>522</v>
       </c>
       <c r="G34" t="s">
         <v>55</v>
       </c>
       <c r="H34" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J34" t="s">
         <v>104</v>
       </c>
       <c r="K34" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L34" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M34" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N34" t="s">
         <v>104</v>
@@ -4721,87 +4725,87 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C35" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E35" t="s">
         <v>229</v>
       </c>
       <c r="F35" t="s">
-        <v>594</v>
+        <v>522</v>
       </c>
       <c r="G35" t="s">
         <v>56</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J35" t="s">
         <v>104</v>
       </c>
       <c r="K35" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L35" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M35" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N35" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C36" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E36" t="s">
-        <v>430</v>
+        <v>610</v>
       </c>
       <c r="F36" t="s">
-        <v>594</v>
+        <v>522</v>
       </c>
       <c r="G36" t="s">
         <v>53</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J36" t="s">
         <v>104</v>
       </c>
       <c r="K36" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L36" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M36" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N36" t="s">
         <v>104</v>
@@ -4809,43 +4813,43 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C37" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E37" t="s">
-        <v>431</v>
+        <v>609</v>
       </c>
       <c r="F37" t="s">
-        <v>594</v>
+        <v>522</v>
       </c>
       <c r="G37" t="s">
         <v>51</v>
       </c>
       <c r="H37" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J37" t="s">
         <v>104</v>
       </c>
       <c r="K37" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L37" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M37" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N37" t="s">
         <v>104</v>
@@ -4853,75 +4857,75 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C38" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E38" t="s">
-        <v>455</v>
+        <v>611</v>
       </c>
       <c r="F38" t="s">
-        <v>594</v>
+        <v>522</v>
       </c>
       <c r="G38" t="s">
         <v>52</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J38" t="s">
         <v>104</v>
       </c>
       <c r="K38" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L38" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M38" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N38" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C39" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D39" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E39" t="s">
         <v>186</v>
       </c>
       <c r="F39" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J39" t="s">
         <v>104</v>
       </c>
       <c r="K39" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L39" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M39" s="9" t="s">
         <v>44</v>
@@ -4930,36 +4934,36 @@
         <v>104</v>
       </c>
       <c r="P39" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C40" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E40" t="s">
         <v>185</v>
       </c>
       <c r="F40" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J40" t="s">
         <v>104</v>
       </c>
       <c r="K40" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L40" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M40" s="9" t="s">
         <v>45</v>
@@ -4970,31 +4974,31 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C41" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D41" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F41" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J41" t="s">
         <v>104</v>
       </c>
       <c r="K41" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L41" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>45</v>
@@ -5005,31 +5009,31 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C42" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F42" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J42" t="s">
         <v>104</v>
       </c>
       <c r="K42" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L42" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="M42" s="9" t="s">
         <v>45</v>
@@ -5040,66 +5044,66 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C43" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E43" t="s">
         <v>187</v>
       </c>
       <c r="F43" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J43" t="s">
         <v>104</v>
       </c>
       <c r="K43" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L43" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>45</v>
       </c>
       <c r="N43" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C44" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F44" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J44" t="s">
         <v>104</v>
       </c>
       <c r="K44" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L44" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>45</v>
@@ -5110,183 +5114,183 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s">
         <v>221</v>
       </c>
       <c r="C45" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E45" t="s">
         <v>193</v>
       </c>
       <c r="F45" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J45" t="s">
         <v>104</v>
       </c>
       <c r="K45" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L45" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="M45" s="16" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N45" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C46" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D46" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E46" t="s">
         <v>192</v>
       </c>
       <c r="F46" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J46" t="s">
         <v>104</v>
       </c>
       <c r="K46" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L46" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M46" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N46" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C47" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D47" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E47" t="s">
         <v>194</v>
       </c>
       <c r="F47" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J47" t="s">
         <v>104</v>
       </c>
       <c r="K47" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L47" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M47" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N47" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C48" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F48" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J48" t="s">
         <v>104</v>
       </c>
       <c r="K48" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L48" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M48" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N48" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>368</v>
+      </c>
+      <c r="B49" t="s">
         <v>369</v>
       </c>
-      <c r="B49" t="s">
-        <v>370</v>
-      </c>
       <c r="C49" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D49" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F49" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G49" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>32</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J49" t="s">
         <v>104</v>
       </c>
       <c r="K49" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L49" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="M49" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N49" t="s">
         <v>104</v>
@@ -5294,43 +5298,43 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C50" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D50" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E50" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F50" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G50" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>32</v>
       </c>
       <c r="I50" s="20" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J50" t="s">
         <v>104</v>
       </c>
       <c r="K50" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L50" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M50" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N50" t="s">
         <v>71</v>
@@ -5338,28 +5342,28 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C51" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D51" t="s">
         <v>230</v>
       </c>
       <c r="E51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F51" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G51" t="s">
         <v>30</v>
       </c>
       <c r="H51" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I51" s="19" t="s">
         <v>30</v>
@@ -5368,13 +5372,13 @@
         <v>104</v>
       </c>
       <c r="K51" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L51" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M51" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N51" t="s">
         <v>65</v>
@@ -5382,43 +5386,43 @@
     </row>
     <row r="52" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C52" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F52" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H52" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J52" t="s">
         <v>104</v>
       </c>
       <c r="K52" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L52" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M52" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N52" t="s">
         <v>104</v>
@@ -5426,28 +5430,28 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B53" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C53" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D53" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E53" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F53" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G53" t="s">
         <v>29</v>
       </c>
       <c r="H53" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I53" s="19" t="s">
         <v>29</v>
@@ -5456,13 +5460,13 @@
         <v>104</v>
       </c>
       <c r="K53" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L53" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M53" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N53" t="s">
         <v>65</v>
@@ -5470,43 +5474,43 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C54" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D54" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F54" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G54" t="s">
         <v>31</v>
       </c>
       <c r="H54" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J54" t="s">
         <v>104</v>
       </c>
       <c r="K54" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L54" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M54" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N54" t="s">
         <v>65</v>
@@ -5514,43 +5518,43 @@
     </row>
     <row r="55" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C55" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F55" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G55" t="s">
         <v>28</v>
       </c>
       <c r="H55" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I55" s="19" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J55" t="s">
         <v>104</v>
       </c>
       <c r="K55" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L55" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M55" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N55" t="s">
         <v>67</v>
@@ -5558,66 +5562,66 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B56" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D56" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E56" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F56" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J56" t="s">
         <v>106</v>
       </c>
       <c r="K56" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L56" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M56" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="N56" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B57" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D57" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E57" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F57" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J57" t="s">
         <v>106</v>
       </c>
       <c r="K57" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L57" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M57" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N57" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -5631,28 +5635,28 @@
         <v>212</v>
       </c>
       <c r="E58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F58" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G58" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H58" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J58" t="s">
         <v>104</v>
       </c>
       <c r="K58" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L58" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M58" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N58" t="s">
         <v>94</v>
@@ -5672,22 +5676,22 @@
         <v>159</v>
       </c>
       <c r="F59" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I59" s="19" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="J59" t="s">
         <v>104</v>
       </c>
       <c r="K59" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L59" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M59" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N59" t="s">
         <v>104</v>
@@ -5701,31 +5705,31 @@
         <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D60" t="s">
         <v>211</v>
       </c>
       <c r="E60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F60" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J60" t="s">
         <v>104</v>
       </c>
       <c r="K60" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L60" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M60" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N60" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5736,40 +5740,40 @@
         <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F61" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G61" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H61" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I61" s="19" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J61" t="s">
         <v>107</v>
       </c>
       <c r="K61" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L61" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M61" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N61" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -5780,40 +5784,40 @@
         <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D62" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E62" t="s">
         <v>154</v>
       </c>
       <c r="F62" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="J62" t="s">
         <v>107</v>
       </c>
       <c r="K62" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L62" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M62" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N62" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -5821,31 +5825,31 @@
         <v>190</v>
       </c>
       <c r="B63" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D63" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F63" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I63" s="19" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J63" t="s">
         <v>106</v>
       </c>
       <c r="K63" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L63" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M63" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N63" t="s">
         <v>104</v>
@@ -5859,28 +5863,28 @@
         <v>208</v>
       </c>
       <c r="C64" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D64" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E64" t="s">
         <v>172</v>
       </c>
       <c r="F64" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J64" t="s">
         <v>104</v>
       </c>
       <c r="K64" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L64" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M64" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N64" t="s">
         <v>98</v>
@@ -5891,31 +5895,31 @@
         <v>190</v>
       </c>
       <c r="B65" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C65" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D65" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E65" t="s">
         <v>171</v>
       </c>
       <c r="F65" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J65" t="s">
         <v>104</v>
       </c>
       <c r="K65" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L65" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M65" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N65" t="s">
         <v>98</v>
@@ -5926,31 +5930,31 @@
         <v>190</v>
       </c>
       <c r="B66" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D66" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E66" t="s">
         <v>164</v>
       </c>
       <c r="F66" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J66" t="s">
         <v>106</v>
       </c>
       <c r="K66" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L66" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M66" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N66" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -5961,7 +5965,7 @@
         <v>203</v>
       </c>
       <c r="C67" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D67" t="s">
         <v>218</v>
@@ -5970,22 +5974,22 @@
         <v>163</v>
       </c>
       <c r="F67" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J67" t="s">
         <v>104</v>
       </c>
       <c r="K67" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L67" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M67" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N67" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -5993,34 +5997,34 @@
         <v>190</v>
       </c>
       <c r="B68" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E68" t="s">
         <v>167</v>
       </c>
       <c r="F68" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I68" s="19" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J68" t="s">
         <v>106</v>
       </c>
       <c r="K68" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L68" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M68" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N68" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -6031,34 +6035,34 @@
         <v>205</v>
       </c>
       <c r="C69" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E69" t="s">
         <v>166</v>
       </c>
       <c r="F69" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I69" s="19" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J69" t="s">
         <v>104</v>
       </c>
       <c r="K69" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L69" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M69" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N69" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -6069,7 +6073,7 @@
         <v>204</v>
       </c>
       <c r="C70" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D70" t="s">
         <v>211</v>
@@ -6078,22 +6082,22 @@
         <v>165</v>
       </c>
       <c r="F70" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J70" t="s">
         <v>104</v>
       </c>
       <c r="K70" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L70" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M70" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N70" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -6104,34 +6108,34 @@
         <v>206</v>
       </c>
       <c r="C71" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D71" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E71" t="s">
         <v>168</v>
       </c>
       <c r="F71" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I71" s="19" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J71" t="s">
         <v>104</v>
       </c>
       <c r="K71" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L71" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M71" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N71" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
@@ -6142,7 +6146,7 @@
         <v>202</v>
       </c>
       <c r="C72" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D72" t="s">
         <v>217</v>
@@ -6151,19 +6155,19 @@
         <v>162</v>
       </c>
       <c r="F72" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J72" t="s">
         <v>104</v>
       </c>
       <c r="K72" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L72" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M72" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N72" t="s">
         <v>100</v>
@@ -6174,31 +6178,31 @@
         <v>190</v>
       </c>
       <c r="B73" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C73" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D73" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E73" t="s">
         <v>170</v>
       </c>
       <c r="F73" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J73" t="s">
         <v>104</v>
       </c>
       <c r="K73" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L73" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M73" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N73" t="s">
         <v>98</v>
@@ -6212,7 +6216,7 @@
         <v>201</v>
       </c>
       <c r="C74" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D74" t="s">
         <v>216</v>
@@ -6221,19 +6225,19 @@
         <v>161</v>
       </c>
       <c r="F74" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J74" t="s">
         <v>104</v>
       </c>
       <c r="K74" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L74" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M74" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N74" t="s">
         <v>99</v>
@@ -6247,7 +6251,7 @@
         <v>200</v>
       </c>
       <c r="C75" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D75" t="s">
         <v>215</v>
@@ -6256,19 +6260,19 @@
         <v>97</v>
       </c>
       <c r="F75" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J75" t="s">
         <v>104</v>
       </c>
       <c r="K75" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L75" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M75" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N75" t="s">
         <v>98</v>
@@ -6282,28 +6286,28 @@
         <v>199</v>
       </c>
       <c r="C76" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D76" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E76" t="s">
         <v>160</v>
       </c>
       <c r="F76" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J76" t="s">
         <v>104</v>
       </c>
       <c r="K76" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L76" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M76" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N76" t="s">
         <v>96</v>
@@ -6317,31 +6321,31 @@
         <v>209</v>
       </c>
       <c r="C77" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D77" t="s">
         <v>219</v>
       </c>
       <c r="E77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F77" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J77" t="s">
         <v>104</v>
       </c>
       <c r="K77" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L77" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M77" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N77" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -6352,31 +6356,31 @@
         <v>210</v>
       </c>
       <c r="C78" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D78" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E78" t="s">
         <v>174</v>
       </c>
       <c r="F78" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J78" t="s">
         <v>104</v>
       </c>
       <c r="K78" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L78" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M78" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N78" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -6387,7 +6391,7 @@
         <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D79" t="s">
         <v>213</v>
@@ -6396,22 +6400,22 @@
         <v>158</v>
       </c>
       <c r="F79" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I79" s="19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J79" t="s">
         <v>104</v>
       </c>
       <c r="K79" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L79" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M79" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N79" t="s">
         <v>95</v>
@@ -6422,31 +6426,31 @@
         <v>190</v>
       </c>
       <c r="B80" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C80" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D80" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E80" t="s">
         <v>169</v>
       </c>
       <c r="F80" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J80" t="s">
         <v>104</v>
       </c>
       <c r="K80" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L80" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M80" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N80" t="s">
         <v>96</v>
@@ -6460,40 +6464,40 @@
         <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D81" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E81" t="s">
         <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G81" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H81" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I81" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J81" t="s">
         <v>104</v>
       </c>
       <c r="K81" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L81" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M81" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N81" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
@@ -6504,7 +6508,7 @@
         <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D82" t="s">
         <v>212</v>
@@ -6513,197 +6517,197 @@
         <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J82" t="s">
         <v>104</v>
       </c>
       <c r="K82" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L82" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M82" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N82" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B83" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C83" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D83" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E83" t="s">
         <v>233</v>
       </c>
       <c r="F83" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J83" t="s">
         <v>104</v>
       </c>
       <c r="K83" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L83" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M83" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N83" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B84" t="s">
         <v>230</v>
       </c>
       <c r="C84" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D84" t="s">
         <v>230</v>
       </c>
       <c r="E84" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F84" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J84" t="s">
         <v>104</v>
       </c>
       <c r="K84" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L84" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M84" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N84" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B85" t="s">
+        <v>335</v>
+      </c>
+      <c r="C85" t="s">
+        <v>586</v>
+      </c>
+      <c r="D85" t="s">
+        <v>365</v>
+      </c>
+      <c r="E85" t="s">
         <v>336</v>
       </c>
-      <c r="C85" t="s">
-        <v>588</v>
-      </c>
-      <c r="D85" t="s">
-        <v>366</v>
-      </c>
-      <c r="E85" t="s">
-        <v>337</v>
-      </c>
       <c r="F85" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J85" t="s">
         <v>104</v>
       </c>
       <c r="K85" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L85" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M85" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N85" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B86" t="s">
         <v>231</v>
       </c>
       <c r="C86" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D86" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E86" t="s">
         <v>232</v>
       </c>
       <c r="F86" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J86" t="s">
         <v>104</v>
       </c>
       <c r="K86" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L86" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M86" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N86" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B87" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C87" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D87" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E87" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F87" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J87" t="s">
         <v>104</v>
       </c>
       <c r="K87" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L87" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M87" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N87" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
@@ -6711,31 +6715,31 @@
         <v>195</v>
       </c>
       <c r="B88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C88" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D88" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E88" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F88" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J88" t="s">
         <v>107</v>
       </c>
       <c r="K88" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L88" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M88" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N88" t="s">
         <v>104</v>
@@ -6746,16 +6750,16 @@
         <v>195</v>
       </c>
       <c r="B89" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D89" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E89" t="s">
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G89" t="s">
         <v>14</v>
@@ -6770,13 +6774,13 @@
         <v>106</v>
       </c>
       <c r="K89" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L89" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="M89" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N89" t="s">
         <v>104</v>
@@ -6790,34 +6794,34 @@
         <v>195</v>
       </c>
       <c r="B90" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C90" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D90" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F90" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J90" t="s">
         <v>104</v>
       </c>
       <c r="K90" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L90" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M90" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N90" t="s">
         <v>104</v>
@@ -6828,34 +6832,34 @@
         <v>195</v>
       </c>
       <c r="B91" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C91" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D91" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E91" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F91" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I91" s="19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J91" t="s">
         <v>104</v>
       </c>
       <c r="K91" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L91" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M91" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N91" t="s">
         <v>104</v>
@@ -6866,31 +6870,31 @@
         <v>195</v>
       </c>
       <c r="B92" t="s">
+        <v>249</v>
+      </c>
+      <c r="D92" t="s">
+        <v>363</v>
+      </c>
+      <c r="E92" t="s">
         <v>250</v>
       </c>
-      <c r="D92" t="s">
-        <v>364</v>
-      </c>
-      <c r="E92" t="s">
-        <v>251</v>
-      </c>
       <c r="F92" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I92" s="19" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J92" t="s">
         <v>106</v>
       </c>
       <c r="K92" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L92" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M92" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N92" t="s">
         <v>74</v>
@@ -6901,37 +6905,37 @@
         <v>195</v>
       </c>
       <c r="B93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C93" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D93" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F93" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J93" t="s">
         <v>104</v>
       </c>
       <c r="K93" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L93" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M93" s="9" t="s">
         <v>82</v>
       </c>
       <c r="N93" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
@@ -6942,31 +6946,31 @@
         <v>197</v>
       </c>
       <c r="C94" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D94" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E94" t="s">
         <v>153</v>
       </c>
       <c r="F94" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I94" s="19" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J94" t="s">
         <v>104</v>
       </c>
       <c r="K94" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L94" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M94" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N94" t="s">
         <v>65</v>
@@ -6980,31 +6984,31 @@
         <v>196</v>
       </c>
       <c r="C95" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D95" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F95" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I95" s="19" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="J95" t="s">
         <v>104</v>
       </c>
       <c r="K95" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L95" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M95" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N95" t="s">
         <v>36</v>
@@ -7015,28 +7019,28 @@
         <v>195</v>
       </c>
       <c r="B96" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D96" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E96" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F96" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J96" t="s">
         <v>106</v>
       </c>
       <c r="K96" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L96" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M96" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N96" t="s">
         <v>74</v>
@@ -7047,37 +7051,37 @@
         <v>195</v>
       </c>
       <c r="B97" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C97" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E97" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F97" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I97" s="23" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J97" t="s">
         <v>107</v>
       </c>
       <c r="K97" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L97" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M97" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N97" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
@@ -7085,34 +7089,34 @@
         <v>195</v>
       </c>
       <c r="B98" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C98" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D98" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E98" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F98" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I98" s="23" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J98" t="s">
         <v>105</v>
       </c>
       <c r="K98" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L98" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N98" t="s">
         <v>65</v>
@@ -7123,34 +7127,34 @@
         <v>195</v>
       </c>
       <c r="B99" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C99" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D99" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E99" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F99" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I99" s="23" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J99" t="s">
         <v>105</v>
       </c>
       <c r="K99" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L99" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M99" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N99" t="s">
         <v>104</v>
@@ -7161,28 +7165,28 @@
         <v>195</v>
       </c>
       <c r="B100" t="s">
+        <v>256</v>
+      </c>
+      <c r="D100" t="s">
+        <v>363</v>
+      </c>
+      <c r="E100" t="s">
         <v>257</v>
       </c>
-      <c r="D100" t="s">
-        <v>364</v>
-      </c>
-      <c r="E100" t="s">
-        <v>258</v>
-      </c>
       <c r="F100" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J100" t="s">
         <v>106</v>
       </c>
       <c r="K100" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L100" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N100" t="s">
         <v>74</v>
@@ -7193,31 +7197,31 @@
         <v>195</v>
       </c>
       <c r="B101" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C101" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D101" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E101" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F101" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I101" s="23" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="J101" t="s">
         <v>105</v>
       </c>
       <c r="K101" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L101" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M101" s="9" t="s">
         <v>82</v>
@@ -7231,31 +7235,31 @@
         <v>195</v>
       </c>
       <c r="B102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C102" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D102" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F102" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J102" t="s">
         <v>104</v>
       </c>
       <c r="K102" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L102" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N102" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
@@ -7263,31 +7267,31 @@
         <v>195</v>
       </c>
       <c r="B103" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C103" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D103" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F103" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J103" t="s">
         <v>107</v>
       </c>
       <c r="K103" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L103" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M103" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N103" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
@@ -7298,31 +7302,31 @@
         <v>144</v>
       </c>
       <c r="C104" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D104" t="s">
         <v>146</v>
       </c>
       <c r="E104" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F104" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J104" t="s">
         <v>107</v>
       </c>
       <c r="K104" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L104" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N104" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
@@ -7333,37 +7337,37 @@
         <v>139</v>
       </c>
       <c r="C105" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D105" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E105" t="s">
         <v>149</v>
       </c>
       <c r="F105" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G105" t="s">
         <v>23</v>
       </c>
       <c r="H105" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J105" t="s">
         <v>107</v>
       </c>
       <c r="K105" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L105" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N105" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
@@ -7374,40 +7378,40 @@
         <v>140</v>
       </c>
       <c r="C106" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D106" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E106" t="s">
         <v>150</v>
       </c>
       <c r="F106" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G106" t="s">
         <v>20</v>
       </c>
       <c r="H106" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J106" t="s">
         <v>107</v>
       </c>
       <c r="K106" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L106" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N106" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
@@ -7418,37 +7422,37 @@
         <v>228</v>
       </c>
       <c r="C107" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D107" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E107" t="s">
         <v>148</v>
       </c>
       <c r="F107" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G107" t="s">
         <v>19</v>
       </c>
       <c r="H107" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I107" s="19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J107" t="s">
         <v>107</v>
       </c>
       <c r="K107" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L107" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N107" t="s">
         <v>65</v>
@@ -7462,7 +7466,7 @@
         <v>237</v>
       </c>
       <c r="C108" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D108" t="s">
         <v>145</v>
@@ -7471,28 +7475,28 @@
         <v>152</v>
       </c>
       <c r="F108" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G108" t="s">
         <v>22</v>
       </c>
       <c r="H108" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I108" s="19" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J108" t="s">
         <v>107</v>
       </c>
       <c r="K108" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L108" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N108" t="s">
         <v>93</v>
@@ -7506,37 +7510,37 @@
         <v>141</v>
       </c>
       <c r="C109" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D109" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E109" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F109" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G109" t="s">
         <v>24</v>
       </c>
       <c r="H109" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J109" t="s">
         <v>107</v>
       </c>
       <c r="K109" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L109" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N109" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
@@ -7547,37 +7551,37 @@
         <v>143</v>
       </c>
       <c r="C110" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D110" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E110" t="s">
         <v>188</v>
       </c>
       <c r="F110" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G110" t="s">
         <v>22</v>
       </c>
       <c r="H110" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J110" t="s">
         <v>107</v>
       </c>
       <c r="K110" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L110" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N110" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
@@ -7588,7 +7592,7 @@
         <v>234</v>
       </c>
       <c r="C111" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D111" t="s">
         <v>147</v>
@@ -7597,28 +7601,28 @@
         <v>81</v>
       </c>
       <c r="F111" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G111" t="s">
         <v>21</v>
       </c>
       <c r="H111" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J111" t="s">
         <v>107</v>
       </c>
       <c r="K111" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L111" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N111" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
@@ -7629,7 +7633,7 @@
         <v>236</v>
       </c>
       <c r="C112" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D112" t="s">
         <v>145</v>
@@ -7638,28 +7642,28 @@
         <v>151</v>
       </c>
       <c r="F112" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G112" t="s">
         <v>21</v>
       </c>
       <c r="H112" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I112" s="19" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J112" t="s">
         <v>107</v>
       </c>
       <c r="K112" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L112" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N112" t="s">
         <v>72</v>
@@ -7673,7 +7677,7 @@
         <v>142</v>
       </c>
       <c r="C113" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D113" t="s">
         <v>235</v>
@@ -7682,42 +7686,42 @@
         <v>189</v>
       </c>
       <c r="F113" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J113" t="s">
         <v>107</v>
       </c>
       <c r="K113" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L113" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M113" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N113" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B114" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C114" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D114" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>220</v>
       </c>
       <c r="F114" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G114" t="s">
         <v>16</v>
@@ -7726,19 +7730,19 @@
         <v>33</v>
       </c>
       <c r="I114" s="20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J114" t="s">
         <v>107</v>
       </c>
       <c r="K114" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L114" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M114" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N114" t="s">
         <v>65</v>
@@ -7746,22 +7750,22 @@
     </row>
     <row r="115" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B115" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C115" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D115" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>222</v>
       </c>
       <c r="F115" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G115" t="s">
         <v>17</v>
@@ -7770,19 +7774,19 @@
         <v>34</v>
       </c>
       <c r="I115" s="20" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J115" t="s">
         <v>107</v>
       </c>
       <c r="K115" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L115" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M115" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N115" t="s">
         <v>92</v>
@@ -7790,64 +7794,64 @@
     </row>
     <row r="116" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B116" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C116" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D116" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F116" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G116" t="s">
         <v>18</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I116" s="21"/>
       <c r="J116" t="s">
         <v>107</v>
       </c>
       <c r="K116" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L116" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="M116" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N116" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B117" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C117" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D117" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E117" t="s">
         <v>223</v>
       </c>
       <c r="F117" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G117" t="s">
         <v>15</v>
@@ -7856,19 +7860,19 @@
         <v>35</v>
       </c>
       <c r="I117" s="22" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J117" t="s">
         <v>107</v>
       </c>
       <c r="K117" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L117" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M117" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N117" t="s">
         <v>104</v>
@@ -7876,25 +7880,25 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B118" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C118" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D118" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E118" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F118" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H118" s="10"/>
       <c r="I118" s="21"/>
@@ -7902,39 +7906,39 @@
         <v>107</v>
       </c>
       <c r="K118" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L118" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M118" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N118" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B119" t="s">
+        <v>388</v>
+      </c>
+      <c r="C119" t="s">
+        <v>583</v>
+      </c>
+      <c r="D119" t="s">
         <v>389</v>
-      </c>
-      <c r="C119" t="s">
-        <v>585</v>
-      </c>
-      <c r="D119" t="s">
-        <v>390</v>
       </c>
       <c r="E119" t="s">
         <v>226</v>
       </c>
       <c r="F119" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G119" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H119" s="10"/>
       <c r="I119" s="21"/>
@@ -7942,39 +7946,39 @@
         <v>107</v>
       </c>
       <c r="K119" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L119" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M119" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N119" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B120" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C120" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D120" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E120" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F120" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G120" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H120" s="10"/>
       <c r="I120" s="21"/>
@@ -7982,39 +7986,39 @@
         <v>107</v>
       </c>
       <c r="K120" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L120" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M120" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N120" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B121" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C121" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D121" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E121" t="s">
         <v>224</v>
       </c>
       <c r="F121" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G121" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H121" s="10"/>
       <c r="I121" s="21"/>
@@ -8022,39 +8026,39 @@
         <v>107</v>
       </c>
       <c r="K121" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L121" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M121" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N121" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B122" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C122" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D122" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E122" t="s">
         <v>225</v>
       </c>
       <c r="F122" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G122" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H122" s="10"/>
       <c r="I122" s="21"/>
@@ -8062,16 +8066,16 @@
         <v>107</v>
       </c>
       <c r="K122" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L122" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M122" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N122" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
@@ -8079,7 +8083,7 @@
         <v>43</v>
       </c>
       <c r="F123" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N123" t="s">
         <v>124</v>
@@ -8090,7 +8094,7 @@
         <v>127</v>
       </c>
       <c r="F124" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N124" t="s">
         <v>124</v>
@@ -8101,7 +8105,7 @@
         <v>39</v>
       </c>
       <c r="F125" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N125" t="s">
         <v>124</v>
@@ -8112,7 +8116,7 @@
         <v>37</v>
       </c>
       <c r="F126" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N126" t="s">
         <v>124</v>
@@ -8123,7 +8127,7 @@
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N127" t="s">
         <v>124</v>
@@ -8134,7 +8138,7 @@
         <v>75</v>
       </c>
       <c r="F128" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N128" t="s">
         <v>83</v>
@@ -8145,7 +8149,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N129" t="s">
         <v>84</v>
@@ -8165,7 +8169,7 @@
         <v>69</v>
       </c>
       <c r="F130" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J130" t="s">
         <v>11</v>
@@ -8191,7 +8195,7 @@
         <v>123</v>
       </c>
       <c r="F131" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N131" t="s">
         <v>124</v>
@@ -8202,7 +8206,7 @@
         <v>128</v>
       </c>
       <c r="F132" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N132" t="s">
         <v>124</v>
@@ -8213,7 +8217,7 @@
         <v>115</v>
       </c>
       <c r="F133" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N133" t="s">
         <v>111</v>
@@ -8224,7 +8228,7 @@
         <v>116</v>
       </c>
       <c r="F134" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N134" t="s">
         <v>111</v>
@@ -8232,10 +8236,10 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E135" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F135" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N135" t="s">
         <v>111</v>
@@ -8246,7 +8250,7 @@
         <v>112</v>
       </c>
       <c r="F136" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N136" t="s">
         <v>111</v>
@@ -8257,7 +8261,7 @@
         <v>125</v>
       </c>
       <c r="F137" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N137" t="s">
         <v>124</v>
@@ -8268,7 +8272,7 @@
         <v>113</v>
       </c>
       <c r="F138" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N138" t="s">
         <v>111</v>
@@ -8279,7 +8283,7 @@
         <v>40</v>
       </c>
       <c r="F139" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N139" t="s">
         <v>124</v>
@@ -8290,10 +8294,10 @@
         <v>118</v>
       </c>
       <c r="F140" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I140" s="19" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="N140" t="s">
         <v>111</v>
@@ -8304,7 +8308,7 @@
         <v>114</v>
       </c>
       <c r="F141" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N141" t="s">
         <v>111</v>
@@ -8315,7 +8319,7 @@
         <v>64</v>
       </c>
       <c r="F142" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N142" t="s">
         <v>124</v>
@@ -8326,7 +8330,7 @@
         <v>120</v>
       </c>
       <c r="F143" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N143" t="s">
         <v>111</v>
@@ -8337,7 +8341,7 @@
         <v>121</v>
       </c>
       <c r="F144" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N144" t="s">
         <v>111</v>
@@ -8348,7 +8352,7 @@
         <v>42</v>
       </c>
       <c r="F145" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N145" t="s">
         <v>124</v>
@@ -8359,7 +8363,7 @@
         <v>119</v>
       </c>
       <c r="F146" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N146" t="s">
         <v>111</v>
@@ -8370,7 +8374,7 @@
         <v>122</v>
       </c>
       <c r="F147" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N147" t="s">
         <v>111</v>
@@ -8381,7 +8385,7 @@
         <v>117</v>
       </c>
       <c r="F148" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N148" t="s">
         <v>111</v>
@@ -8389,10 +8393,10 @@
     </row>
     <row r="149" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E149" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F149" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N149" t="s">
         <v>111</v>
@@ -8403,7 +8407,7 @@
         <v>41</v>
       </c>
       <c r="F150" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N150" t="s">
         <v>124</v>
@@ -8414,7 +8418,7 @@
         <v>126</v>
       </c>
       <c r="F151" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N151" t="s">
         <v>124</v>
@@ -8425,7 +8429,7 @@
         <v>110</v>
       </c>
       <c r="F152" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N152" t="s">
         <v>111</v>
@@ -8436,7 +8440,7 @@
         <v>66</v>
       </c>
       <c r="F153" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N153" t="s">
         <v>107</v>
@@ -8447,7 +8451,7 @@
         <v>129</v>
       </c>
       <c r="F154" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N154" t="s">
         <v>124</v>
@@ -8458,7 +8462,7 @@
         <v>63</v>
       </c>
       <c r="F155" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N155" t="s">
         <v>124</v>
@@ -8469,7 +8473,7 @@
         <v>173</v>
       </c>
       <c r="F156" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N156" t="s">
         <v>124</v>
@@ -8480,7 +8484,7 @@
         <v>62</v>
       </c>
       <c r="F157" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N157" t="s">
         <v>124</v>
@@ -8491,13 +8495,13 @@
         <v>48</v>
       </c>
       <c r="F158" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G158" t="s">
         <v>47</v>
       </c>
       <c r="H158" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J158" t="s">
         <v>25</v>
@@ -8511,13 +8515,13 @@
         <v>26</v>
       </c>
       <c r="F159" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G159" t="s">
         <v>27</v>
       </c>
       <c r="H159" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="160" spans="5:14" x14ac:dyDescent="0.2">
@@ -8525,13 +8529,13 @@
         <v>59</v>
       </c>
       <c r="F160" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G160" t="s">
         <v>60</v>
       </c>
       <c r="H160" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="161" spans="5:9" x14ac:dyDescent="0.2">
@@ -8539,27 +8543,27 @@
         <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G161" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H161" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="162" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E162" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F162" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G162" t="s">
         <v>13</v>
       </c>
       <c r="H162" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="163" spans="5:9" x14ac:dyDescent="0.2">
@@ -8567,112 +8571,112 @@
         <v>49</v>
       </c>
       <c r="F163" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G163" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H163" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="164" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E164" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F164" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I164" s="19" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="165" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E165" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F165" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I165" s="19" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="166" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E166" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F166" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I166" s="19" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="167" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E167" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F167" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I167" s="20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="168" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E168" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F168" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I168" s="20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="169" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E169" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F169" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I169" s="20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="170" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E170" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F170" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I170" s="20" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="171" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E171" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F171" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I171" s="20" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="172" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E172" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F172" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I172" s="20" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>

--- a/ReDBox Data Mapping.xlsx
+++ b/ReDBox Data Mapping.xlsx
@@ -23,11 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="612">
-  <si>
-    <t>dc:creator.foaf:Person.0.dc:identifier</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="617">
   <si>
     <t>dc:creator.foaf:Person.0.redbox:isPrimaryInvestigator</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -872,17 +868,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>dc:subject.anzsrc:for.0.rdf:resource
-(dc:subject.anzsrc:for.0.skos:prefLabel)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Related Services - Identifier</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc:subject.anzsrc:seo.0.rdf:resource
-(dc:subject.anzsrc:seo.0.skos:prefLabel)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1533,810 +1519,832 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>redbox:newForm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field Name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field Mapping</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hidden</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hidden</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date Record Created</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date Record Modified</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes.vm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>skos:note.0.dc:created</t>
+  </si>
+  <si>
+    <t>pageTitle</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>source</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc_identifier</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc:title</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc:description</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc:coverage.vivo:DateTimeInterval.vivo:start</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc:coverage.vivo:DateTimeInterval.vivo:end</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>addNote</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc:relation.swrc:Publication.0.dc:identifier</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc:relation.swrc:Publication.0.dc:title</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc:relation.swrc:Publication.0.skos:note</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc:relation.bibo:Website.0.dc:title</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc:relation.bibo:Website.0.skos:note</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc:subject.vivo:keyword.0.rdf:PlainLiteral</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc:accessRights.rdf:PlainLiteral</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>skos:note.0.dc:description</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>step</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rda_harvest</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_type</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_modified</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>harvest_config</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>harvest_rules</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>repository_name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>- controls logic in RIF-CS output for RIF:spatial in RIF:coverage</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not required to map to RIF-CS</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checkbox</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rif:description.0.value</t>
+  </si>
+  <si>
+    <t>dc:relation.bibo:Website.0.dc:title</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes:</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rif:relation @type (used in rif:relatedObject)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not tested, no data</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>relationships, description (formData.tfpackage)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rif:description</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rif:description @type</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncomment ?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>if populated citation Id is set to 'http://dx.doi.org/${doi}'</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not tested, not setup</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc:relation.bibo:Website.0.dc:identifier</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIF-CS - tested</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rif:identifier @type (used in rif:collection)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rif:key (used in rif:registryObject)
+rif:identifier (used in rif:collection)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK
+OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rif:value (used in rif:electronic, in rif:location)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rif:addressPart (used in rif:physical, rif:location)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rif:text (used in rif:temporal, rif:coverage)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rif:date type="dateTo" dateFormat="W3CDTF" (used in rif:temporal, rif:coverage)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rif:date type="dateFrom" dateFormat="W3CDTF" (used in rif:temporal, rif:coverage)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rif:spatial (used in rif:coverage)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc:coverage.vivo:GeographicLocation.0.coords</t>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow_security</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc:accessRights.dc:RightsStatement.dc:identifier</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edgar - input/view Test</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Alerts - mapped (RIF)</t>
+  </si>
+  <si>
+    <t>rif:key (used in rif:registryObject)</t>
+  </si>
+  <si>
+    <t>rif:identifier.1.value</t>
+  </si>
+  <si>
+    <t>rif:identifier.1.type</t>
+  </si>
+  <si>
+    <t>rif:identifier @type (used in rif:key)</t>
+  </si>
+  <si>
+    <t>rif:identifier @type (used in rif:key)
+(rif:identifier @label (used in rif:key))</t>
+  </si>
+  <si>
+    <t>rif:key @origin</t>
+  </si>
+  <si>
+    <t>rif:collection @type
+(rif:collection @type)</t>
+  </si>
+  <si>
+    <t>rif:namePart (where rif:name[@type='primary'] in rif:collection)</t>
+  </si>
+  <si>
+    <t>redbox:submissionProcess.dc:title</t>
+  </si>
+  <si>
+    <t>rif:description @type (where type = 'full', 'brief', 'note', or 'logo')</t>
+  </si>
+  <si>
+    <t>rif:description (where type = 'full', 'brief', 'note', or 'logo')</t>
+  </si>
+  <si>
+    <t>rif:description @label (where type = 'full', 'brief', 'note', or 'logo')
+rif:description @type (where type = 'full', 'brief', 'note', or 'logo')</t>
+  </si>
+  <si>
+    <t>description.0.type</t>
+  </si>
+  <si>
+    <t>dc:description.0.type</t>
+  </si>
+  <si>
+    <t>redbox:submissionProcess.dc:description.0.type</t>
+  </si>
+  <si>
+    <t>redbox:submissionProcess.dc:description.0.value</t>
+  </si>
+  <si>
+    <t>dc:description.0.value</t>
+  </si>
+  <si>
+    <t>description.0.value</t>
+  </si>
+  <si>
+    <t>rif:description (@type='rights' in rif:collection)</t>
+  </si>
+  <si>
+    <t>rif:description (@type='accessRights' in rif:collection)</t>
+  </si>
+  <si>
+    <t>rif:subject (@type='local' in rif:colletion)</t>
+  </si>
+  <si>
+    <t>rif:subject (@type='anzsrc-for' in rif:collection)
+(rif:subject (@title in rif:collection))</t>
+  </si>
+  <si>
+    <t>rif:subject (@type='anzsrc-seo' in rif:collection)
+(rif:subject (@title in rif:collection))</t>
+  </si>
+  <si>
+    <t>rif:relation @type (where @type = 'hasAssocationWith', or 'isEnrichedBy', or 'isOwnedBy', or 'isManagedBy' or 'hasCollector')
+(rif:relation @label (where @type = 'hasAssocationWith', or 'isEnrichedBy', or 'isOwnedBy', or 'isManagedBy' or 'hasCollector'))</t>
+  </si>
+  <si>
+    <t>rif:relation @Family_Name (where @type = 'hasAssocationWith', or 'isEnrichedBy', or 'isOwnedBy', or 'isManagedBy' or 'hasCollector')</t>
+  </si>
+  <si>
+    <t>rif:relation @Given_Name (where @type = 'hasAssocationWith', or 'isEnrichedBy', or 'isOwnedBy', or 'isManagedBy' or 'hasCollector')</t>
+  </si>
+  <si>
+    <t>rif:relation @Honorific (where @type = 'hasAssocationWith', or 'isEnrichedBy', or 'isOwnedBy', or 'isManagedBy' or 'hasCollector')</t>
+  </si>
+  <si>
+    <t>rif:relation @dc_title (where @type = 'hasAssocationWith', or 'isEnrichedBy', or 'isOwnedBy', or 'isManagedBy' or 'hasCollector')</t>
+  </si>
+  <si>
+    <t>rif:relation @primary_group_id (where @type = 'hasAssocationWith', or 'isEnrichedBy', or 'isOwnedBy', or 'isManagedBy' or 'hasCollector')
+rif:relation @primary_group_name (where @type = 'hasAssocationWith', or 'isEnrichedBy', or 'isOwnedBy', or 'isManagedBy' or 'hasCollector')</t>
+  </si>
+  <si>
+    <t>rif:relation @grantNumber (where rif:collection/rif:relatedObject/rif:relation @type='isOutputOf')</t>
+  </si>
+  <si>
+    <t>rif:relation @title (where rif:collection/rif:relatedObject/rif:relation @type='isOutputOf')</t>
+  </si>
+  <si>
+    <t>rif:key</t>
+  </si>
+  <si>
+    <t>rif:identifier (where @type='uri' and @uritype='license')</t>
+  </si>
+  <si>
+    <t>rif:identifier (where @type='uri' and @uritype='url')</t>
+  </si>
+  <si>
+    <t>rif:title (where rif:identifier @type='uri' and @uritype='url')</t>
+  </si>
+  <si>
+    <t>rif:notes (where rif:identifier @type='uri' and @uritype='url')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rif:identifier (@type='doi')  </t>
+  </si>
+  <si>
+    <t>rif:title (where rif:identifier @type='doi')</t>
+  </si>
+  <si>
+    <t>rif:note (where rif:identifier @type='doi')</t>
+  </si>
+  <si>
+    <t>rif:spatial</t>
+  </si>
+  <si>
+    <t>rif:wkt</t>
+  </si>
+  <si>
+    <t>rif:addressPart (where @type='combined' used in rif:location/rif:address/rif:physical)</t>
+  </si>
+  <si>
+    <t>rif:date where @type='dateFrom' (in rif:coverage/rif:temporal)</t>
+  </si>
+  <si>
+    <t>rif:date where @type='dateTo' (in rif:coverage/rif:temporal)</t>
+  </si>
+  <si>
+    <t>@hon where (rif:location/rif:address/rif:electronic[@type='email'])</t>
+  </si>
+  <si>
+    <t>@givenName where (rif:location/rif:address/rif:electronic[@type='email'])</t>
+  </si>
+  <si>
+    <t>@familyName where (rif:location/rif:address/rif:electronic[@type='email'])</t>
+  </si>
+  <si>
+    <t>rif:value where (rif:location/rif:address/rif:electronic[@type='email'])</t>
+  </si>
+  <si>
+    <t>rif:DATA_MANAGEMENT @size</t>
+  </si>
+  <si>
+    <t>rif:LANGUAGE</t>
+  </si>
+  <si>
+    <t>rif:DATA_MANAGEMENT @period or rif:RETENTION (yes two fields mapped to one, must be an error)</t>
+  </si>
+  <si>
+    <t>rif:description.0.label
+(rif:description.0.type)</t>
+  </si>
+  <si>
+    <t>dc:type.rdf:PlainLiteral
+(dc:type.skos:prefLabel)</t>
+  </si>
+  <si>
+    <t>dc:creator.foaf:Person.0.jcu:relationshipType
+(dc:creator.foaf:Person.0.jcu:relationshipLabel)</t>
+  </si>
+  <si>
+    <t>dc:creator.foaf:Person.0.foaf:Organization.dc:identifier
+(dc:creator.foaf:Person.0.foaf:Organization.skos:prefLabel)</t>
+  </si>
+  <si>
+    <t>Optionality</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>defaults to current date</t>
+  </si>
+  <si>
+    <t>defaults to 'English'</t>
+  </si>
+  <si>
+    <t>mandatory - need to enforce this</t>
+  </si>
+  <si>
+    <t>mandatory - 1 field of 4</t>
+  </si>
+  <si>
+    <t>dc:identifier.dc:type.rdf:PlainLiteral
+(dc:identifier.dc:type.skos:prefLabel)</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>mandatory - 1 field of 3</t>
+  </si>
+  <si>
+    <t>optional - conditional</t>
+  </si>
+  <si>
+    <t>dc:relation.bibo:Website.0.dc:identifier</t>
+  </si>
+  <si>
+    <t>dc:subject.anzsrc:toa.rdf:resource
+(dc:subject.anzsrc:toa.skos:prefLabel)</t>
+  </si>
+  <si>
+    <t>DC24 Mapped</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>access_rights</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>dc:biblioGraphicCitation.dc:hasPart.bibo:Website.dc:identifier</t>
+  </si>
+  <si>
+    <t>dc:biblioGraphicCitation.dc:hasPart.dc:date.0.dc:type.skos:prefLabel</t>
+  </si>
+  <si>
+    <t>dc:biblioGraphicCitation.dc:hasPart.dc:hasVersion.rdf:PlainLiteral</t>
+  </si>
+  <si>
+    <t>dc:biblioGraphicCitation.dc:hasPart.dc:identifier.skos:note</t>
+  </si>
+  <si>
+    <t>dc:biblioGraphicCitation.dc:hasPart.dc:publisher.rdf:PlainLiteral</t>
+  </si>
+  <si>
+    <t>dc:biblioGraphicCitation.dc:hasPart.dc:title</t>
+  </si>
+  <si>
+    <t>dc:biblioGraphicCitation.dc:hasPart.locrel:ctb.0.foaf:familyName</t>
+  </si>
+  <si>
+    <t>dc:biblioGraphicCitation.dc:hasPart.locrel:ctb.0.foaf:givenName</t>
+  </si>
+  <si>
+    <t>dc:biblioGraphicCitation.dc:hasPart.locrel:ctb.0.foaf:title</t>
+  </si>
+  <si>
+    <t>dc:biblioGraphicCitation.dc:hasPart.skos:scopeNote</t>
+  </si>
+  <si>
+    <t>dc:biblioGraphicCitation.dc:hasPart.vivo:Publisher.vivo:Location</t>
+  </si>
+  <si>
+    <t>dc:biblioGraphicCitation.redbox:sendCitation</t>
+  </si>
+  <si>
+    <t>dc:coverage.vivo:GeographicLocation.0.dc:type</t>
+  </si>
+  <si>
+    <t>dc:relation.swrc:Publication.0.dc:title</t>
+  </si>
+  <si>
+    <t>dc:relation.swrc:Publication.0.dc:identifier</t>
+  </si>
+  <si>
+    <t>dc:relation.swrc:Publication.0.skos:note</t>
+  </si>
+  <si>
     <t>dc:relation.vivo:Dataset.0.vivo:Relationship.rdf:PlainLiteral
 (dc:relation.vivo:Dataset.0.vivo:Relationship.skos:prefLabel)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>n/a</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc:title</t>
   </si>
   <si>
     <t>redbox:formVersion</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>redbox:newForm</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc:title</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Field Name</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Field Mapping</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>hidden</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>hidden</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date Record Created</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date Record Modified</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Language</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notes.vm</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>skos:note.0.dc:created</t>
-  </si>
-  <si>
-    <t>pageTitle</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>label</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>source</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc_identifier</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc:title</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc:description</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc:coverage.vivo:DateTimeInterval.vivo:start</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc:coverage.vivo:DateTimeInterval.vivo:end</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>addNote</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc:relation.swrc:Publication.0.dc:identifier</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc:relation.swrc:Publication.0.dc:title</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc:relation.swrc:Publication.0.skos:note</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc:relation.bibo:Website.0.dc:title</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc:relation.bibo:Website.0.skos:note</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc:subject.vivo:keyword.0.rdf:PlainLiteral</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc:accessRights.rdf:PlainLiteral</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>skos:note.0.dc:description</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>step</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rda_harvest</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_type</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_modified</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>workflow</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>harvest_config</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>harvest_rules</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>repository_name</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>- controls logic in RIF-CS output for RIF:spatial in RIF:coverage</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not required to map to RIF-CS</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Checkbox</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rif:description.0.value</t>
-  </si>
-  <si>
-    <t>dc:relation.bibo:Website.0.dc:title</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>n/a</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>n/a</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notes:</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rif:relation @type (used in rif:relatedObject)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not tested, no data</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>relationships, description (formData.tfpackage)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rif:description</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rif:description @type</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>uncomment ?</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>if populated citation Id is set to 'http://dx.doi.org/${doi}'</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not tested, not setup</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc:relation.bibo:Website.0.dc:identifier</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>RIF-CS - tested</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rif:identifier @type (used in rif:collection)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rif:key (used in rif:registryObject)
-rif:identifier (used in rif:collection)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK
-OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rif:value (used in rif:electronic, in rif:location)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rif:addressPart (used in rif:physical, rif:location)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rif:text (used in rif:temporal, rif:coverage)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rif:date type="dateTo" dateFormat="W3CDTF" (used in rif:temporal, rif:coverage)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rif:date type="dateFrom" dateFormat="W3CDTF" (used in rif:temporal, rif:coverage)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rif:spatial (used in rif:coverage)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc:coverage.vivo:GeographicLocation.0.coords</t>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>workflow_security</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc:accessRights.dc:RightsStatement.dc:identifier</t>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>Generate</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>dc:creator.foaf:Person.0.dc:identifier</t>
+  </si>
+  <si>
+    <t>Party</t>
   </si>
   <si>
     <t>Built from combo selection - how ??</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edgar - input/view Test</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>n/a</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>n/a</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>n/a</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failed</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>n/a</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Alerts - mapped (RIF)</t>
-  </si>
-  <si>
-    <t>rif:key (used in rif:registryObject)</t>
-  </si>
-  <si>
-    <t>rif:identifier.1.value</t>
-  </si>
-  <si>
-    <t>rif:identifier.1.type</t>
-  </si>
-  <si>
-    <t>rif:identifier @type (used in rif:key)</t>
-  </si>
-  <si>
-    <t>rif:identifier @type (used in rif:key)
-(rif:identifier @label (used in rif:key))</t>
-  </si>
-  <si>
-    <t>rif:key @origin</t>
-  </si>
-  <si>
-    <t>rif:collection @type
-(rif:collection @type)</t>
-  </si>
-  <si>
-    <t>rif:namePart (where rif:name[@type='primary'] in rif:collection)</t>
-  </si>
-  <si>
-    <t>redbox:submissionProcess.dc:title</t>
-  </si>
-  <si>
-    <t>rif:description @type (where type = 'full', 'brief', 'note', or 'logo')</t>
-  </si>
-  <si>
-    <t>rif:description (where type = 'full', 'brief', 'note', or 'logo')</t>
-  </si>
-  <si>
-    <t>rif:description @label (where type = 'full', 'brief', 'note', or 'logo')
-rif:description @type (where type = 'full', 'brief', 'note', or 'logo')</t>
-  </si>
-  <si>
-    <t>description.0.type</t>
-  </si>
-  <si>
-    <t>dc:description.0.type</t>
-  </si>
-  <si>
-    <t>redbox:submissionProcess.dc:description.0.type</t>
-  </si>
-  <si>
-    <t>redbox:submissionProcess.dc:description.0.value</t>
-  </si>
-  <si>
-    <t>dc:description.0.value</t>
-  </si>
-  <si>
-    <t>description.0.value</t>
-  </si>
-  <si>
-    <t>rif:description (@type='rights' in rif:collection)</t>
-  </si>
-  <si>
-    <t>rif:description (@type='accessRights' in rif:collection)</t>
-  </si>
-  <si>
-    <t>rif:subject (@type='local' in rif:colletion)</t>
-  </si>
-  <si>
-    <t>rif:subject (@type='anzsrc-for' in rif:collection)
-(rif:subject (@title in rif:collection))</t>
-  </si>
-  <si>
-    <t>rif:subject (@type='anzsrc-seo' in rif:collection)
-(rif:subject (@title in rif:collection))</t>
-  </si>
-  <si>
-    <t>rif:relation @type (where @type = 'hasAssocationWith', or 'isEnrichedBy', or 'isOwnedBy', or 'isManagedBy' or 'hasCollector')
-(rif:relation @label (where @type = 'hasAssocationWith', or 'isEnrichedBy', or 'isOwnedBy', or 'isManagedBy' or 'hasCollector'))</t>
-  </si>
-  <si>
-    <t>rif:relation @Family_Name (where @type = 'hasAssocationWith', or 'isEnrichedBy', or 'isOwnedBy', or 'isManagedBy' or 'hasCollector')</t>
-  </si>
-  <si>
-    <t>rif:relation @Given_Name (where @type = 'hasAssocationWith', or 'isEnrichedBy', or 'isOwnedBy', or 'isManagedBy' or 'hasCollector')</t>
-  </si>
-  <si>
-    <t>rif:relation @Honorific (where @type = 'hasAssocationWith', or 'isEnrichedBy', or 'isOwnedBy', or 'isManagedBy' or 'hasCollector')</t>
-  </si>
-  <si>
-    <t>rif:relation @dc_title (where @type = 'hasAssocationWith', or 'isEnrichedBy', or 'isOwnedBy', or 'isManagedBy' or 'hasCollector')</t>
-  </si>
-  <si>
-    <t>rif:relation @primary_group_id (where @type = 'hasAssocationWith', or 'isEnrichedBy', or 'isOwnedBy', or 'isManagedBy' or 'hasCollector')
-rif:relation @primary_group_name (where @type = 'hasAssocationWith', or 'isEnrichedBy', or 'isOwnedBy', or 'isManagedBy' or 'hasCollector')</t>
-  </si>
-  <si>
-    <t>rif:relation @grantNumber (where rif:collection/rif:relatedObject/rif:relation @type='isOutputOf')</t>
-  </si>
-  <si>
-    <t>rif:relation @title (where rif:collection/rif:relatedObject/rif:relation @type='isOutputOf')</t>
-  </si>
-  <si>
-    <t>rif:key</t>
-  </si>
-  <si>
-    <t>rif:identifier (where @type='uri' and @uritype='license')</t>
-  </si>
-  <si>
-    <t>rif:identifier (where @type='uri' and @uritype='url')</t>
-  </si>
-  <si>
-    <t>rif:title (where rif:identifier @type='uri' and @uritype='url')</t>
-  </si>
-  <si>
-    <t>rif:notes (where rif:identifier @type='uri' and @uritype='url')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rif:identifier (@type='doi')  </t>
-  </si>
-  <si>
-    <t>rif:title (where rif:identifier @type='doi')</t>
-  </si>
-  <si>
-    <t>rif:note (where rif:identifier @type='doi')</t>
-  </si>
-  <si>
-    <t>rif:spatial</t>
-  </si>
-  <si>
-    <t>rif:wkt</t>
-  </si>
-  <si>
-    <t>rif:addressPart (where @type='combined' used in rif:location/rif:address/rif:physical)</t>
-  </si>
-  <si>
-    <t>rif:date where @type='dateFrom' (in rif:coverage/rif:temporal)</t>
-  </si>
-  <si>
-    <t>rif:date where @type='dateTo' (in rif:coverage/rif:temporal)</t>
-  </si>
-  <si>
-    <t>@hon where (rif:location/rif:address/rif:electronic[@type='email'])</t>
-  </si>
-  <si>
-    <t>@givenName where (rif:location/rif:address/rif:electronic[@type='email'])</t>
-  </si>
-  <si>
-    <t>@familyName where (rif:location/rif:address/rif:electronic[@type='email'])</t>
-  </si>
-  <si>
-    <t>rif:value where (rif:location/rif:address/rif:electronic[@type='email'])</t>
-  </si>
-  <si>
-    <t>rif:DATA_MANAGEMENT @size</t>
-  </si>
-  <si>
-    <t>rif:LANGUAGE</t>
-  </si>
-  <si>
-    <t>rif:DATA_MANAGEMENT @period or rif:RETENTION (yes two fields mapped to one, must be an error)</t>
-  </si>
-  <si>
-    <t>rif:description.0.label
-(rif:description.0.type)</t>
-  </si>
-  <si>
-    <t>dc:type.rdf:PlainLiteral
-(dc:type.skos:prefLabel)</t>
-  </si>
-  <si>
-    <t>dc:creator.foaf:Person.0.jcu:relationshipType
-(dc:creator.foaf:Person.0.jcu:relationshipLabel)</t>
-  </si>
-  <si>
-    <t>dc:creator.foaf:Person.0.foaf:Organization.dc:identifier
-(dc:creator.foaf:Person.0.foaf:Organization.skos:prefLabel)</t>
-  </si>
-  <si>
-    <t>Optionality</t>
-  </si>
-  <si>
-    <t>mandatory</t>
-  </si>
-  <si>
-    <t>defaults to current date</t>
-  </si>
-  <si>
-    <t>defaults to 'English'</t>
-  </si>
-  <si>
-    <t>mandatory - need to enforce this</t>
-  </si>
-  <si>
-    <t>mandatory - 1 field of 4</t>
-  </si>
-  <si>
-    <t>dc:identifier.dc:type.rdf:PlainLiteral
-(dc:identifier.dc:type.skos:prefLabel)</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>mandatory - 1 field of 3</t>
-  </si>
-  <si>
-    <t>optional - conditional</t>
-  </si>
-  <si>
-    <t>dc:relation.bibo:Website.0.dc:identifier</t>
-  </si>
-  <si>
-    <t>dc:subject.anzsrc:toa.rdf:resource
-(dc:subject.anzsrc:toa.skos:prefLabel)</t>
-  </si>
-  <si>
-    <t>DC24 Mapped</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>access_rights</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>dc:biblioGraphicCitation.dc:hasPart.bibo:Website.dc:identifier</t>
-  </si>
-  <si>
-    <t>dc:biblioGraphicCitation.dc:hasPart.dc:date.0.dc:type.skos:prefLabel</t>
-  </si>
-  <si>
-    <t>dc:biblioGraphicCitation.dc:hasPart.dc:hasVersion.rdf:PlainLiteral</t>
-  </si>
-  <si>
-    <t>dc:biblioGraphicCitation.dc:hasPart.dc:identifier.skos:note</t>
-  </si>
-  <si>
-    <t>dc:biblioGraphicCitation.dc:hasPart.dc:publisher.rdf:PlainLiteral</t>
-  </si>
-  <si>
-    <t>dc:biblioGraphicCitation.dc:hasPart.dc:title</t>
-  </si>
-  <si>
-    <t>dc:biblioGraphicCitation.dc:hasPart.locrel:ctb.0.foaf:familyName</t>
-  </si>
-  <si>
-    <t>dc:biblioGraphicCitation.dc:hasPart.locrel:ctb.0.foaf:givenName</t>
-  </si>
-  <si>
-    <t>dc:biblioGraphicCitation.dc:hasPart.locrel:ctb.0.foaf:title</t>
-  </si>
-  <si>
-    <t>dc:biblioGraphicCitation.dc:hasPart.skos:scopeNote</t>
-  </si>
-  <si>
-    <t>dc:biblioGraphicCitation.dc:hasPart.vivo:Publisher.vivo:Location</t>
-  </si>
-  <si>
-    <t>dc:biblioGraphicCitation.redbox:sendCitation</t>
-  </si>
-  <si>
-    <t>dc:coverage.vivo:GeographicLocation.0.dc:type</t>
-  </si>
-  <si>
-    <t>dc:relation.swrc:Publication.0.dc:title</t>
-  </si>
-  <si>
-    <t>dc:relation.swrc:Publication.0.dc:identifier</t>
-  </si>
-  <si>
-    <t>dc:relation.swrc:Publication.0.skos:note</t>
+  </si>
+  <si>
+    <t>dc:subject.anzsrc:for.0.rdf:resource
+(dc:subject.anzsrc:for.0.skos:prefLabel)</t>
+  </si>
+  <si>
+    <t>dc:subject.anzsrc:seo.0.rdf:resource
+(dc:subject.anzsrc:seo.0.skos:prefLabel)</t>
+  </si>
+  <si>
+    <t>Attachment</t>
   </si>
 </sst>
 </file>
@@ -3112,297 +3120,297 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C4" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B5" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C5" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B6" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C6" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B11" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B15" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B16" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B17" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B18" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B19" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B20" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B21" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B22" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B23" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B24" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B25" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B26" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -3423,14 +3431,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" hidden="1" customWidth="1"/>
-    <col min="2" max="3" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="50.625" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
@@ -3448,5235 +3457,5232 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" t="s">
         <v>586</v>
       </c>
-      <c r="D2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" t="s">
-        <v>593</v>
-      </c>
       <c r="F2" t="s">
-        <v>522</v>
+        <v>616</v>
       </c>
       <c r="J2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F3" t="s">
-        <v>522</v>
+        <v>616</v>
       </c>
       <c r="J3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L3" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M3" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N3" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="F4" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="L4" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="N4" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F5" t="s">
-        <v>522</v>
+        <v>616</v>
       </c>
       <c r="J5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L5" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M5" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N5" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E6" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="F6" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="J6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L6" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N6" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E7" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F7" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="N7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F8" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L8" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M8" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N8" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E9" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="F9" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L9" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M9" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N9" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F10" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L10" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M10" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N10" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D11" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E11" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="F11" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L11" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M11" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C12" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F12" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="J12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L12" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M12" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N12" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C13" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D13" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E13" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="F13" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="J13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L13" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M13" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N13" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C14" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D14" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E14" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F14" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L14" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M14" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N14" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E15" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="F15" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="J15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K15" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L15" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M15" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N15" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E16" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F16" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="J16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K16" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L16" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M16" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N16" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D17" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E17" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="F17" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="J17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L17" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M17" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N17" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F18" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K18" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L18" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M18" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N18" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" t="s">
         <v>182</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>579</v>
+      </c>
+      <c r="D19" t="s">
         <v>183</v>
       </c>
-      <c r="C19" t="s">
-        <v>586</v>
-      </c>
-      <c r="D19" t="s">
-        <v>184</v>
-      </c>
       <c r="E19" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F19" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H19" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K19" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L19" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M19" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N19" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D20" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L20" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M20" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="N20" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D21" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K21" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L21" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M21" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="N21" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>522</v>
+        <v>609</v>
       </c>
       <c r="J22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K22" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M22" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N22" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C23" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D23" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E23" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F23" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="G23" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H23" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K23" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L23" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M23" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C24" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D24" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F24" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="G24" t="s">
+        <v>472</v>
+      </c>
+      <c r="H24" t="s">
+        <v>464</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="J24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" t="s">
+        <v>506</v>
+      </c>
+      <c r="L24" t="s">
         <v>478</v>
       </c>
-      <c r="H24" t="s">
-        <v>470</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>567</v>
-      </c>
-      <c r="J24" t="s">
-        <v>104</v>
-      </c>
-      <c r="K24" t="s">
-        <v>513</v>
-      </c>
-      <c r="L24" t="s">
-        <v>484</v>
-      </c>
       <c r="M24" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B25" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C25" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D25" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F25" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="G25" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H25" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="J25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K25" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L25" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M25" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B26" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D26" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E26" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F26" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K26" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L26" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="M26" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N26" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B27" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D27" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E27" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F27" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K27" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L27" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="M27" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N27" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B28" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C28" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D28" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E28" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="F28" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H28" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K28" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L28" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="M28" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B29" t="s">
+        <v>353</v>
+      </c>
+      <c r="D29" t="s">
+        <v>361</v>
+      </c>
+      <c r="E29" t="s">
         <v>356</v>
       </c>
-      <c r="D29" t="s">
-        <v>364</v>
-      </c>
-      <c r="E29" t="s">
-        <v>359</v>
-      </c>
       <c r="F29" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K29" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="L29" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M29" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="N29" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B30" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D30" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E30" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F30" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K30" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L30" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M30" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N30" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B31" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C31" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D31" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E31" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F31" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G31" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H31" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="J31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K31" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L31" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M31" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B32" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D32" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E32" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F32" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H32" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="J32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K32" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L32" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M32" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B33" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C33" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D33" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E33" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F33" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H33" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="J33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K33" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L33" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M33" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B34" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C34" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D34" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E34" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F34" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="G34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H34" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="J34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K34" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L34" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M34" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B35" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C35" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D35" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E35" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F35" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="J35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K35" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L35" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M35" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N35" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B36" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C36" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D36" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E36" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="F36" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="G36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="J36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K36" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L36" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M36" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C37" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D37" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E37" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F37" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="J37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K37" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L37" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M37" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B38" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C38" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D38" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E38" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F38" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="G38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="J38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K38" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L38" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M38" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N38" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B39" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C39" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D39" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F39" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K39" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L39" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P39" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C40" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D40" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F40" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K40" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L40" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B41" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C41" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D41" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E41" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F41" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K41" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L41" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B42" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C42" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D42" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E42" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F42" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K42" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L42" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C43" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D43" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F43" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K43" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="L43" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N43" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C44" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D44" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>391</v>
+        <v>605</v>
       </c>
       <c r="F44" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K44" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L44" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B45" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C45" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D45" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F45" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K45" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L45" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M45" s="16" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="N45" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C46" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D46" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F46" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K46" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L46" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M46" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N46" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C47" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D47" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F47" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K47" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L47" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M47" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N47" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B48" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C48" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D48" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F48" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K48" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L48" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="M48" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N48" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>365</v>
+      </c>
+      <c r="B49" t="s">
+        <v>366</v>
+      </c>
+      <c r="C49" t="s">
+        <v>576</v>
+      </c>
+      <c r="D49" t="s">
         <v>368</v>
       </c>
-      <c r="B49" t="s">
-        <v>369</v>
-      </c>
-      <c r="C49" t="s">
-        <v>583</v>
-      </c>
-      <c r="D49" t="s">
-        <v>371</v>
-      </c>
       <c r="E49" s="4" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F49" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="G49" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="J49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K49" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L49" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="M49" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B50" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C50" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="D50" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E50" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F50" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="G50" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I50" s="20" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="J50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K50" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="L50" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M50" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B51" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C51" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E51" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F51" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H51" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I51" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K51" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L51" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M51" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B52" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C52" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F52" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="J52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K52" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L52" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M52" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B53" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C53" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D53" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E53" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F53" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H53" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K53" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L53" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M53" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C54" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E54" t="s">
-        <v>405</v>
+        <v>606</v>
       </c>
       <c r="F54" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H54" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="J54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K54" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L54" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M54" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C55" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="F55" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="G55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H55" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I55" s="19" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="J55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K55" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L55" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M55" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B56" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D56" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E56" t="s">
-        <v>403</v>
+        <v>607</v>
       </c>
       <c r="F56" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="J56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K56" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="L56" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M56" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="N56" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B57" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D57" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E57" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F57" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="J57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K57" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L57" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M57" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N57" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E58" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F58" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G58" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H58" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K58" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L58" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M58" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F59" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I59" s="19" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="J59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K59" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L59" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M59" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="N59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="D60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E60" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F60" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K60" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L60" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M60" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N60" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="D61" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F61" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G61" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H61" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I61" s="19" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="J61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K61" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L61" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M61" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N61" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="D62" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F62" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="J62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K62" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L62" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M62" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N62" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B63" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D63" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E63" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F63" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I63" s="19" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="J63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K63" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L63" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="M63" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B64" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C64" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D64" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F64" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K64" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L64" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M64" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B65" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C65" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D65" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F65" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K65" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L65" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M65" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B66" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D66" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F66" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K66" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L66" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="M66" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N66" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C67" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D67" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F67" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K67" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L67" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M67" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N67" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B68" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D68" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F68" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I68" s="19" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="J68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K68" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L68" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M68" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N68" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C69" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D69" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F69" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I69" s="19" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="J69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K69" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L69" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M69" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N69" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C70" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D70" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E70" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F70" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K70" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L70" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M70" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N70" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C71" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D71" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F71" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I71" s="19" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="J71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K71" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L71" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M71" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N71" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B72" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C72" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F72" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K72" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L72" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M72" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B73" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C73" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D73" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E73" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F73" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K73" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L73" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M73" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C74" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F74" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K74" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L74" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M74" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C75" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D75" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E75" t="s">
+        <v>96</v>
+      </c>
+      <c r="F75" t="s">
+        <v>585</v>
+      </c>
+      <c r="J75" t="s">
+        <v>103</v>
+      </c>
+      <c r="K75" t="s">
+        <v>506</v>
+      </c>
+      <c r="L75" t="s">
+        <v>486</v>
+      </c>
+      <c r="M75" t="s">
+        <v>506</v>
+      </c>
+      <c r="N75" t="s">
         <v>97</v>
-      </c>
-      <c r="F75" t="s">
-        <v>592</v>
-      </c>
-      <c r="J75" t="s">
-        <v>104</v>
-      </c>
-      <c r="K75" t="s">
-        <v>513</v>
-      </c>
-      <c r="L75" t="s">
-        <v>492</v>
-      </c>
-      <c r="M75" t="s">
-        <v>513</v>
-      </c>
-      <c r="N75" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C76" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D76" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F76" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K76" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L76" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M76" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="N76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B77" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C77" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E77" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F77" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K77" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L77" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M77" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="N77" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B78" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C78" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D78" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E78" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F78" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K78" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L78" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M78" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="N78" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F79" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="I79" s="19" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="J79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K79" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L79" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M79" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="N79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B80" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C80" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D80" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E80" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F80" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K80" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L80" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M80" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="N80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D81" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G81" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H81" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I81" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="J81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K81" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L81" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M81" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N81" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D82" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F82" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K82" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L82" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M82" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N82" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B83" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C83" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D83" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E83" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F83" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K83" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L83" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M83" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N83" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B84" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C84" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D84" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E84" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F84" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K84" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L84" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M84" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N84" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B85" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C85" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D85" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E85" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F85" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K85" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L85" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M85" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N85" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B86" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C86" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D86" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E86" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F86" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J86" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K86" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L86" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M86" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N86" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B87" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C87" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D87" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E87" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F87" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K87" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L87" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M87" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N87" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B88" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C88" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D88" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E88" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F88" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="J88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K88" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="L88" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="M88" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="N88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B89" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D89" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E89" t="s">
-        <v>0</v>
+        <v>611</v>
       </c>
       <c r="F89" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="G89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K89" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L89" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="M89" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P89" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B90" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C90" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D90" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E90" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F90" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="J90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K90" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L90" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="M90" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B91" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C91" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D91" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E91" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F91" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I91" s="19" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="J91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K91" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L91" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M91" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="N91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B92" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D92" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E92" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F92" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I92" s="19" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="J92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K92" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L92" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M92" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="204" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B93" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C93" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D93" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="F93" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="J93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K93" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L93" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N93" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C94" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D94" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F94" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I94" s="19" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="J94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K94" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L94" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="M94" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N94" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95" t="s">
         <v>195</v>
       </c>
-      <c r="B95" t="s">
-        <v>196</v>
-      </c>
       <c r="C95" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D95" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F95" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="I95" s="19" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="J95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K95" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L95" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M95" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B96" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D96" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E96" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F96" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="J96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K96" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L96" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M96" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N96" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B97" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C97" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E97" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F97" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I97" s="23" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="J97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K97" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L97" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M97" s="6" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="N97" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B98" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C98" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D98" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E98" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F98" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I98" s="23" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="J98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K98" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L98" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B99" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C99" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D99" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E99" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F99" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I99" s="23" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="J99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K99" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L99" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M99" s="6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B100" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D100" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E100" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F100" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K100" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L100" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N100" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B101" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C101" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D101" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E101" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F101" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I101" s="23" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="J101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K101" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L101" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B102" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C102" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D102" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F102" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K102" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="L102" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N102" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B103" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C103" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D103" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F103" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K103" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L103" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M103" s="6" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N103" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C104" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E104" t="s">
-        <v>511</v>
+        <v>613</v>
       </c>
       <c r="F104" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="J104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K104" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L104" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N104" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B105" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C105" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="D105" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E105" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F105" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H105" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K105" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L105" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N105" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B106" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C106" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="D106" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F106" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="J106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K106" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L106" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N106" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B107" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C107" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="D107" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E107" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F107" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H107" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I107" s="19" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="J107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K107" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L107" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N107" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B108" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C108" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E108" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F108" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H108" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I108" s="19" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="J108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K108" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L108" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N108" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C109" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="D109" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E109" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F109" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H109" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K109" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L109" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N109" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C110" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D110" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E110" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F110" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H110" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J110" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K110" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L110" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N110" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C111" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E111" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F111" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G111" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H111" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K111" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L111" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N111" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B112" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C112" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E112" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F112" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H112" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I112" s="19" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="J112" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K112" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="L112" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N112" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C113" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D113" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E113" t="s">
-        <v>189</v>
-      </c>
-      <c r="F113" t="s">
-        <v>592</v>
+        <v>188</v>
       </c>
       <c r="J113" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K113" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L113" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M113" s="6" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N113" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B114" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C114" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D114" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>220</v>
+        <v>614</v>
       </c>
       <c r="F114" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I114" s="20" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="J114" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K114" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L114" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M114" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N114" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B115" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C115" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D115" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>222</v>
+        <v>615</v>
       </c>
       <c r="F115" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I115" s="20" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="J115" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K115" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L115" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M115" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="N115" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B116" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C116" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D116" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="F116" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="I116" s="21"/>
       <c r="J116" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K116" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L116" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="M116" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="N116" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B117" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C117" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D117" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F117" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I117" s="22" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J117" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K117" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L117" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M117" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N117" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B118" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C118" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="D118" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E118" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F118" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G118" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H118" s="10"/>
       <c r="I118" s="21"/>
       <c r="J118" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K118" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L118" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M118" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N118" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B119" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C119" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="D119" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E119" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F119" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G119" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H119" s="10"/>
       <c r="I119" s="21"/>
       <c r="J119" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K119" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L119" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M119" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N119" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B120" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C120" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="D120" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E120" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F120" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G120" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H120" s="10"/>
       <c r="I120" s="21"/>
       <c r="J120" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K120" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L120" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M120" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N120" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B121" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C121" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="D121" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E121" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F121" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G121" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H121" s="10"/>
       <c r="I121" s="21"/>
       <c r="J121" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K121" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L121" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="M121" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N121" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B122" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C122" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="D122" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E122" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F122" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G122" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H122" s="10"/>
       <c r="I122" s="21"/>
       <c r="J122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K122" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L122" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M122" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N122" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F123" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F124" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N127" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E128" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F128" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N128" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E129" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N129" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:16" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
         <v>6</v>
       </c>
-      <c r="B130" t="s">
+      <c r="D130" t="s">
         <v>7</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
+        <v>68</v>
+      </c>
+      <c r="F130" t="s">
+        <v>585</v>
+      </c>
+      <c r="J130" t="s">
+        <v>10</v>
+      </c>
+      <c r="K130" t="s">
+        <v>9</v>
+      </c>
+      <c r="L130" t="s">
+        <v>9</v>
+      </c>
+      <c r="M130" t="s">
         <v>8</v>
       </c>
-      <c r="E130" t="s">
+      <c r="N130" t="s">
         <v>69</v>
       </c>
-      <c r="F130" t="s">
-        <v>592</v>
-      </c>
-      <c r="J130" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" t="s">
-        <v>10</v>
-      </c>
-      <c r="L130" t="s">
-        <v>10</v>
-      </c>
-      <c r="M130" t="s">
-        <v>9</v>
-      </c>
-      <c r="N130" t="s">
-        <v>70</v>
-      </c>
       <c r="P130" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E131" t="s">
+        <v>122</v>
+      </c>
+      <c r="F131" t="s">
+        <v>585</v>
+      </c>
+      <c r="N131" t="s">
         <v>123</v>
-      </c>
-      <c r="F131" t="s">
-        <v>592</v>
-      </c>
-      <c r="N131" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E132" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F132" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E133" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F133" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N133" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E134" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F134" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N134" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E135" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F135" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N135" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E136" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F136" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N136" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F137" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N137" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E138" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F138" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F139" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N139" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E140" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F140" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I140" s="19" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="N140" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E141" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F141" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N141" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E142" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F142" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N142" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E143" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F143" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N143" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E144" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F144" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N144" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F145" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N145" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="146" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E146" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F146" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N146" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="147" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E147" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F147" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N147" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E148" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F148" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N148" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="149" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E149" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F149" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N149" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E150" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F150" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N150" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="151" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E151" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F151" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N151" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="152" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E152" t="s">
+        <v>109</v>
+      </c>
+      <c r="F152" t="s">
+        <v>585</v>
+      </c>
+      <c r="N152" t="s">
         <v>110</v>
-      </c>
-      <c r="F152" t="s">
-        <v>592</v>
-      </c>
-      <c r="N152" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="153" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E153" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F153" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N153" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="154" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E154" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F154" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N154" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="155" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E155" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F155" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N155" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="156" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E156" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F156" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N156" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="157" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E157" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F157" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N157" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="158" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E158" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F158" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G158" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H158" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J158" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N158" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="159" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E159" t="s">
+        <v>25</v>
+      </c>
+      <c r="F159" t="s">
+        <v>585</v>
+      </c>
+      <c r="G159" t="s">
         <v>26</v>
       </c>
-      <c r="F159" t="s">
-        <v>592</v>
-      </c>
-      <c r="G159" t="s">
-        <v>27</v>
-      </c>
       <c r="H159" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="160" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E160" t="s">
+        <v>58</v>
+      </c>
+      <c r="F160" t="s">
+        <v>585</v>
+      </c>
+      <c r="G160" t="s">
         <v>59</v>
       </c>
-      <c r="F160" t="s">
-        <v>592</v>
-      </c>
-      <c r="G160" t="s">
-        <v>60</v>
-      </c>
       <c r="H160" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="161" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G161" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H161" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="162" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E162" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F162" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H162" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="163" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E163" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F163" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G163" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="H163" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="164" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E164" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F164" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I164" s="19" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="165" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E165" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="F165" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I165" s="19" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="166" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E166" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="F166" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I166" s="19" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="167" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E167" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F167" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I167" s="20" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="168" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E168" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F168" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I168" s="20" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="169" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E169" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F169" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I169" s="20" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="170" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E170" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F170" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I170" s="20" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="171" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E171" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F171" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I171" s="20" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="172" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E172" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F172" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I172" s="20" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -8686,7 +8692,7 @@
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
